--- a/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V1.0.xlsx
+++ b/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0398691E-5EB8-42AA-AE6B-DAFFD4C11932}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC914003-5BB8-40E7-A36E-446A13AC47CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,7 +981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47B32DEB-3118-4713-9EF5-1E844C1273F2}" type="CELLRANGE">
+                    <a:fld id="{EC1466B3-9410-44A0-876E-82D6C4AEEABC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1014,8 +1014,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EDE0389-EEE1-4493-AC98-461C1D6839D7}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{FF4E2B02-187B-4CF7-BC12-F51B9A876FA1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1048,8 +1048,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFA5F784-A977-42B4-937A-10C3632073B3}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{7B93DFF8-D1A8-4C41-8589-6DED4FF870AF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1082,8 +1082,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF075E52-8BE4-48F7-A3E2-E2432ECC3F68}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{0B7836CA-7E4E-44A0-A00A-11E04A16CE1B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1116,8 +1116,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B50E3DF5-A1F4-4A0B-A497-E5E9A806D0DC}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{CBD17AB2-CD05-4870-98A6-B6B1B3857250}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1495,7 +1495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA37881A-0F45-469F-9ABD-4FEC7A489B5F}" type="CELLRANGE">
+                    <a:fld id="{68D01B11-738E-4163-AB08-58BDB2552E13}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1528,8 +1528,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81A79E2E-A52D-410E-B0B8-673AB6B174D0}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{7AA5A8C4-067D-4462-A756-A94E1AC6F5CA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1562,8 +1562,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50419A73-C1AA-44EC-B865-5F76EBC2F71F}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{D212828E-2ECD-4E61-8609-4C02E2FBA565}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1596,8 +1596,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0AA70F1-885F-4CA0-8F3E-644A33C1BEA0}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{28D5B9C0-625B-47AA-9BE4-292C92C4560A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -1988,7 +1988,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BAB7F5E4-3C23-4D08-ADE7-2E355EE475F6}" type="CELLRANGE">
+                    <a:fld id="{637E449B-6033-4BD3-B3F9-6D6CA2FAEDB0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2021,8 +2021,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD3283DE-CC66-4BB9-AE0D-3427879A4116}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{76EBAB68-07FA-4769-BF8A-EA887DF4A23D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2055,8 +2055,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7535B034-CC80-4B48-9EF2-800BC54847F0}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{C26E3080-288C-4810-9FFA-EFF2956EA373}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2089,8 +2089,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D65D90C-60A5-4E82-8EF2-00DF5B520C71}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{D040FE2F-4D03-4A2F-9BDB-39893BCC49F7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -2123,8 +2123,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76529292-108D-42BA-9AD2-97AA00BD50EC}" type="CELLRANGE">
-                      <a:rPr lang="fr-FR"/>
+                    <a:fld id="{3014B7C1-46F4-4703-8270-947A7514F872}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
                     </a:fld>
@@ -5728,7 +5728,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V1.0.xlsx
+++ b/BP_Budget Previsionnel/BF_Budget Financier/Budget financier_V1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC914003-5BB8-40E7-A36E-446A13AC47CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AEB843-310E-4192-9EEC-457480FBCAC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Budget Financier</t>
   </si>
@@ -81,6 +81,9 @@
   <si>
     <t>Aéro</t>
   </si>
+  <si>
+    <t>Divers</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +108,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +148,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -150,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -164,6 +187,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -173,6 +198,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -304,7 +334,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -316,6 +346,26 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-B846-4485-A601-42CDE515985C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-4C5E-4BE2-B5C1-37CB7A43A575}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -380,21 +430,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Feuil1!$C$6,Feuil1!$C$9,Feuil1!$C$12,Feuil1!$C$14)</c:f>
+              <c:f>(Feuil1!$C$6,Feuil1!$C$9,Feuil1!$C$12,Feuil1!$C$14,Feuil1!$C$18)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0\ "€"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1800</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14800</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13900</c:v>
+                  <c:v>14780</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4780</c:v>
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,6 +689,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-5806-4091-96F9-F9429476B603}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:solidFill>
@@ -697,21 +770,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Feuil1!$F$6,Feuil1!$F$9,Feuil1!$F$12,Feuil1!$F$14)</c:f>
+              <c:f>(Feuil1!$F$6,Feuil1!$F$9,Feuil1!$F$12,Feuil1!$F$14,Feuil1!$F$18)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0\ "€"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14000</c:v>
+                  <c:v>17500</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,6 +1049,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-E219-46BD-8E45-8F7DA00527A6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -981,7 +1077,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC1466B3-9410-44A0-876E-82D6C4AEEABC}" type="CELLRANGE">
+                    <a:fld id="{DE930986-6084-4AA1-8A20-57A1730DB1E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1014,7 +1110,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF4E2B02-187B-4CF7-BC12-F51B9A876FA1}" type="CELLRANGE">
+                    <a:fld id="{23666CF7-8479-4ED1-B7C7-53D8612D2721}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1048,7 +1144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B93DFF8-D1A8-4C41-8589-6DED4FF870AF}" type="CELLRANGE">
+                    <a:fld id="{B31AA43E-8108-478E-9DD4-909F9A5F037A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1082,7 +1178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B7836CA-7E4E-44A0-A00A-11E04A16CE1B}" type="CELLRANGE">
+                    <a:fld id="{B2945C11-3120-48BB-9F2B-A677E4BF5E2F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1116,7 +1212,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBD17AB2-CD05-4870-98A6-B6B1B3857250}" type="CELLRANGE">
+                    <a:fld id="{34C44B7A-D7E0-42A8-8FBA-7920E6144C56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1140,6 +1236,40 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-A639-4A83-9717-1A96DBBD6EE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8F78BA49-CFE7-4D9D-BB50-CEEA8E08307C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E219-46BD-8E45-8F7DA00527A6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1204,18 +1334,18 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Feuil1!$G$6,Feuil1!$G$7,Feuil1!$G$9,Feuil1!$G$12,Feuil1!$G$14)</c:f>
+              <c:f>(Feuil1!$G$6,Feuil1!$G$7,Feuil1!$G$9,Feuil1!$G$12,Feuil1!$G$14,Feuil1!$G$18)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0\ "€"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14000</c:v>
+                  <c:v>17500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14000</c:v>
@@ -1223,29 +1353,35 @@
                 <c:pt idx="4">
                   <c:v>4500</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>(Feuil1!$G$6,Feuil1!$G$7,Feuil1!$G$9,Feuil1!$G$12,Feuil1!$G$14)</c15:f>
+                <c15:f>(Feuil1!$G$6,Feuil1!$G$7,Feuil1!$G$9,Feuil1!$G$12,Feuil1!$G$14,Feuil1!$G$18)</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2 000 €</c:v>
+                    <c:v>1 900 €</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>3 000 €</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14 000 €</c:v>
+                    <c:v>17 500 €</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>14 000 €</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>4 500 €</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10 000 €</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1487,6 +1623,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-82BB-4CCA-AF89-19072177AA3C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -1495,7 +1651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68D01B11-738E-4163-AB08-58BDB2552E13}" type="CELLRANGE">
+                    <a:fld id="{312A2407-8CC6-4DF2-8106-B32F5DF63CC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1528,7 +1684,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AA5A8C4-067D-4462-A756-A94E1AC6F5CA}" type="CELLRANGE">
+                    <a:fld id="{1764740C-C917-440D-B693-77A21B1E49E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1562,7 +1718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D212828E-2ECD-4E61-8609-4C02E2FBA565}" type="CELLRANGE">
+                    <a:fld id="{018BA528-F724-4F7B-A079-F2DDC4694482}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1596,7 +1752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28D5B9C0-625B-47AA-9BE4-292C92C4560A}" type="CELLRANGE">
+                    <a:fld id="{A8C258E1-8619-4BFC-B1CE-4D3CBDDC9266}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1620,6 +1776,40 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-AE6A-492F-ACAE-7EC2B3E5E261}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{47D1561C-D302-42A1-9ADA-43449AA60718}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-82BB-4CCA-AF89-19072177AA3C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1684,21 +1874,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Feuil1!$H$6,Feuil1!$H$9,Feuil1!$H$12,Feuil1!$H$14)</c:f>
+              <c:f>(Feuil1!$H$6,Feuil1!$H$9,Feuil1!$H$12,Feuil1!$H$14,Feuil1!$H$18)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0\ "€"</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15500</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3000</c:v>
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,20 +1899,23 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>(Feuil1!$H$6,Feuil1!$H$9,Feuil1!$H$12,Feuil1!$H$14)</c15:f>
+                <c15:f>(Feuil1!$H$6,Feuil1!$H$9,Feuil1!$H$12,Feuil1!$H$14,Feuil1!$H$18)</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2 000 €</c:v>
+                    <c:v>1 900 €</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>15 500 €</c:v>
+                    <c:v>19 500 €</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>14 000 €</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3 000 €</c:v>
+                    <c:v>4 500 €</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10 000 €</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1980,6 +2176,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-D172-47AF-A5E5-D96848CC25C4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -1988,7 +2204,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{637E449B-6033-4BD3-B3F9-6D6CA2FAEDB0}" type="CELLRANGE">
+                    <a:fld id="{614DF409-3A34-4B39-B0A1-9CF00368D720}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2021,7 +2237,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76EBAB68-07FA-4769-BF8A-EA887DF4A23D}" type="CELLRANGE">
+                    <a:fld id="{67A4BB03-1062-4EDE-9DBC-7AAA3C1BA2B6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2055,7 +2271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C26E3080-288C-4810-9FFA-EFF2956EA373}" type="CELLRANGE">
+                    <a:fld id="{873D8657-E6D0-459E-A9D6-DB5745B77A9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2089,7 +2305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D040FE2F-4D03-4A2F-9BDB-39893BCC49F7}" type="CELLRANGE">
+                    <a:fld id="{E87F059E-2500-4C12-81D1-6F7943409135}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2123,7 +2339,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3014B7C1-46F4-4703-8270-947A7514F872}" type="CELLRANGE">
+                    <a:fld id="{5CF4DB19-08B3-4DDA-9FA8-C087F0DCDBD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2147,6 +2363,40 @@
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-3C27-42FF-9B88-C41CC6AC57AE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{91826852-BBB3-4ABC-8049-09B2EF94607D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[PLAGECELL]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="fr-FR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-D172-47AF-A5E5-D96848CC25C4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2211,18 +2461,18 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Feuil1!$I$6,Feuil1!$I$7,Feuil1!$I$9,Feuil1!$I$12,Feuil1!$I$14)</c:f>
+              <c:f>(Feuil1!$I$6,Feuil1!$I$7,Feuil1!$I$9,Feuil1!$I$12,Feuil1!$I$14,Feuil1!$I$18)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0\ "€"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15500</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14000</c:v>
@@ -2230,29 +2480,35 @@
                 <c:pt idx="4">
                   <c:v>4500</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>(Feuil1!$I$6,Feuil1!$I$7,Feuil1!$I$9,Feuil1!$I$12,Feuil1!$I$14)</c15:f>
+                <c15:f>(Feuil1!$I$6,Feuil1!$I$7,Feuil1!$I$9,Feuil1!$I$12,Feuil1!$I$14,Feuil1!$I$18)</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2 000 €</c:v>
+                    <c:v>1 900 €</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>3 000 €</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>15 500 €</c:v>
+                    <c:v>19 500 €</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>14 000 €</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>4 500 €</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10 000 €</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -5127,13 +5383,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5163,13 +5419,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5201,13 +5457,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5239,13 +5495,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5277,13 +5533,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5321,7 +5577,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5416,7 +5672,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> 4. Il y a donc un surcoût d'environ 1000€</a:t>
+            <a:t> 2. Il faut donc estimer le surcout</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5725,10 +5981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5739,10 +5995,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
@@ -5793,21 +6049,21 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G6" s="1">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H6" s="1">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I6" s="1">
-        <v>2000</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -5847,21 +6103,21 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>14800</v>
+        <v>19500</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="G9" s="1">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="H9" s="1">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="I9" s="1">
-        <v>15500</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -5874,17 +6130,13 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
-        <v>1350</v>
+        <v>700</v>
       </c>
       <c r="G10" s="1">
-        <v>1350</v>
+        <v>700</v>
       </c>
-      <c r="H10" s="1">
-        <v>2700</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2700</v>
-      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -5901,7 +6153,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>13900</v>
+        <v>14780</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5933,18 +6185,18 @@
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>4780</v>
+        <v>5600</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="G14" s="1">
         <v>4500</v>
       </c>
       <c r="H14" s="1">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="I14" s="1">
         <v>4500</v>
@@ -5967,7 +6219,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="4">
-        <v>1450</v>
+        <v>700</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5986,28 +6238,59 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
-        <f>C14+C12+C9+C6+C7</f>
-        <v>35280</v>
+      <c r="C20" s="1">
+        <f>C14+C12+C9+C6+C7+C18</f>
+        <v>51780</v>
       </c>
-      <c r="F18" s="1">
-        <f>F14+F12+F9+F6+F7</f>
-        <v>33000</v>
+      <c r="F20" s="1">
+        <f>F14+F12+F9+F6+F7+F18</f>
+        <v>47900</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" ref="G18:I18" si="0">G14+G12+G9+G6+G7</f>
-        <v>37500</v>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:I20" si="0">G14+G12+G9+G6+G7+G18</f>
+        <v>50900</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>34500</v>
+        <v>49900</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="0"/>
-        <v>39000</v>
+        <v>52900</v>
       </c>
     </row>
   </sheetData>
